--- a/Timesheet-evaluation.xlsx
+++ b/Timesheet-evaluation.xlsx
@@ -297,12 +297,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00\ %"/>
-    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -345,12 +344,7 @@
       <color rgb="FF000000"/>
       <name val="Cantarell"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -415,52 +409,44 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -543,166 +529,166 @@
   </sheetPr>
   <dimension ref="A1:I1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="9" style="0" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="9" style="1" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="6" t="n">
         <f aca="false">(F4/(F4+G4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="6" t="n">
         <f aca="false">(F5/(F5+G5))</f>
         <v>1</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
         <f aca="false">(F6/(F6+G6))</f>
         <v>1</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4" t="n">
+      <c r="E7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5" t="n">
         <f aca="false">E7-F7</f>
         <v>0</v>
       </c>
@@ -710,28 +696,28 @@
         <f aca="false">(F7/(F7+G7))</f>
         <v>1</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4" t="n">
+      <c r="E8" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5" t="n">
         <f aca="false">E8-F8</f>
         <v>0</v>
       </c>
@@ -739,28 +725,28 @@
         <f aca="false">(F8/(F8+G8))</f>
         <v>1</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4" t="n">
+      <c r="E9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="n">
         <f aca="false">E9-F9</f>
         <v>0</v>
       </c>
@@ -768,28 +754,28 @@
         <f aca="false">(F9/(F9+G9))</f>
         <v>1</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" s="4" t="n">
+      <c r="E10" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5" t="n">
         <f aca="false">E10-F10</f>
         <v>0</v>
       </c>
@@ -797,28 +783,28 @@
         <f aca="false">(F10/(F10+G10))</f>
         <v>1</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" s="4" t="n">
+      <c r="E11" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5" t="n">
         <f aca="false">E11-F11</f>
         <v>0</v>
       </c>
@@ -826,56 +812,56 @@
         <f aca="false">(F11/(F11+G11))</f>
         <v>1</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4" t="n">
+      <c r="E12" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="6" t="n">
         <f aca="false">(F12/(F12+G12))</f>
         <v>1</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" s="4" t="n">
+      <c r="E13" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="5" t="n">
         <f aca="false">E13-F13</f>
         <v>0</v>
       </c>
@@ -883,84 +869,84 @@
         <f aca="false">(F13/(F13+G13))</f>
         <v>1</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4" t="n">
+      <c r="E14" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
         <f aca="false">(F14/(F14+G14))</f>
         <v>1</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4" t="n">
+      <c r="E15" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="6" t="n">
         <f aca="false">(F15/(F15+G15))</f>
         <v>1</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4" t="n">
+      <c r="E16" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="5" t="n">
         <f aca="false">E16-F16</f>
         <v>0</v>
       </c>
@@ -968,28 +954,28 @@
         <f aca="false">(F16/(F16+G16))</f>
         <v>1</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" s="4" t="n">
+      <c r="E17" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="n">
         <f aca="false">E17-F17</f>
         <v>0</v>
       </c>
@@ -997,308 +983,308 @@
         <f aca="false">(F17/(F17+G17))</f>
         <v>1</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
         <f aca="false">(F18/(F18+G18))</f>
         <v>1</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="6" t="n">
         <f aca="false">(F19/(F19+G19))</f>
         <v>1</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F20" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G20" s="4" t="n">
+      <c r="F20" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="6" t="n">
         <f aca="false">(F20/(F20+G20))</f>
         <v>1</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F21" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G21" s="4" t="n">
+      <c r="F21" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="6" t="n">
         <f aca="false">(F21/(F21+G21))</f>
         <v>1</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F22" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G22" s="4" t="n">
+      <c r="F22" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
         <f aca="false">(F22/(F22+G22))</f>
         <v>1</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G23" s="4" t="n">
+      <c r="F23" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="6" t="n">
         <f aca="false">(F23/(F23+G23))</f>
         <v>1</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G24" s="0" t="n">
+      <c r="F24" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="6" t="n">
         <f aca="false">(F24/(F24+G24))</f>
         <v>1</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F25" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G25" s="4" t="n">
+      <c r="F25" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="6" t="n">
         <f aca="false">(F25/(F25+G25))</f>
         <v>1</v>
       </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F26" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G26" s="4" t="n">
+      <c r="F26" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
         <f aca="false">(F26/(F26+G26))</f>
         <v>1</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F27" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G27" s="4" t="n">
+      <c r="F27" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="6" t="n">
         <f aca="false">(F27/(F27+G27))</f>
         <v>1</v>
       </c>
-      <c r="I27" s="3"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="F28" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="G28" s="5" t="n">
         <f aca="false">E28-F28</f>
         <v>0</v>
       </c>
@@ -1306,28 +1292,28 @@
         <f aca="false">(F28/(F28+G28))</f>
         <v>1</v>
       </c>
-      <c r="I28" s="3"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="5" t="n">
         <f aca="false">E29-F29</f>
         <v>0</v>
       </c>
@@ -1335,113 +1321,112 @@
         <f aca="false">(F29/(F29+G29))</f>
         <v>1</v>
       </c>
-      <c r="I29" s="3"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="G30" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="6" t="n">
         <f aca="false">(F30/(F30+G30))</f>
         <v>1</v>
       </c>
-      <c r="I30" s="3"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="F31" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G31" s="4" t="n">
+      <c r="F31" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H31" s="6" t="n">
         <f aca="false">(F31/(F31+G31))</f>
         <v>1</v>
       </c>
-      <c r="I31" s="3"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="4" t="n">
+      <c r="E32" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="F32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4" t="n">
-        <f aca="false">E32-F32</f>
-        <v>20</v>
+      <c r="F32" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="H32" s="6" t="n">
         <f aca="false">(F32/(F32+G32))</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E33" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="F33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4" t="n">
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="n">
         <f aca="false">E33-F33</f>
         <v>15</v>
       </c>
@@ -1449,28 +1434,28 @@
         <f aca="false">(F33/(F33+G33))</f>
         <v>0</v>
       </c>
-      <c r="I33" s="3"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="4" t="n">
+      <c r="E34" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="F34" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="G34" s="4" t="n">
+      <c r="G34" s="5" t="n">
         <f aca="false">E34-F34</f>
         <v>0</v>
       </c>
@@ -1478,28 +1463,28 @@
         <f aca="false">(F34/(F34+G34))</f>
         <v>1</v>
       </c>
-      <c r="I34" s="3"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F35" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G35" s="4" t="n">
+      <c r="E35" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" s="5" t="n">
         <f aca="false">E35-F35</f>
         <v>0</v>
       </c>
@@ -1507,28 +1492,28 @@
         <f aca="false">(F35/(F35+G35))</f>
         <v>1</v>
       </c>
-      <c r="I35" s="3"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F36" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G36" s="4" t="n">
+      <c r="E36" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" s="5" t="n">
         <f aca="false">E36-F36</f>
         <v>0</v>
       </c>
@@ -1536,28 +1521,28 @@
         <f aca="false">(F36/(F36+G36))</f>
         <v>1</v>
       </c>
-      <c r="I36" s="3"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F37" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G37" s="4" t="n">
+      <c r="E37" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" s="5" t="n">
         <f aca="false">E37-F37</f>
         <v>0</v>
       </c>
@@ -1565,28 +1550,28 @@
         <f aca="false">(F37/(F37+G37))</f>
         <v>1</v>
       </c>
-      <c r="I37" s="3"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F38" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G38" s="4" t="n">
+      <c r="E38" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" s="5" t="n">
         <f aca="false">E38-F38</f>
         <v>0</v>
       </c>
@@ -1594,28 +1579,28 @@
         <f aca="false">(F38/(F38+G38))</f>
         <v>1</v>
       </c>
-      <c r="I38" s="3"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F39" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G39" s="4" t="n">
+      <c r="E39" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" s="5" t="n">
         <f aca="false">E39-F39</f>
         <v>0</v>
       </c>
@@ -1623,28 +1608,28 @@
         <f aca="false">(F39/(F39+G39))</f>
         <v>1</v>
       </c>
-      <c r="I39" s="3"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F40" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G40" s="4" t="n">
+      <c r="E40" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" s="5" t="n">
         <f aca="false">E40-F40</f>
         <v>0</v>
       </c>
@@ -1652,28 +1637,28 @@
         <f aca="false">(F40/(F40+G40))</f>
         <v>1</v>
       </c>
-      <c r="I40" s="3"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F41" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G41" s="4" t="n">
+      <c r="E41" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" s="5" t="n">
         <f aca="false">E41-F41</f>
         <v>0</v>
       </c>
@@ -1681,196 +1666,200 @@
         <f aca="false">(F41/(F41+G41))</f>
         <v>1</v>
       </c>
-      <c r="I41" s="3"/>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4" t="n">
+      <c r="E42" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" s="5" t="n">
         <f aca="false">E42-F42</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H42" s="6" t="n">
         <f aca="false">(F42/(F42+G42))</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4" t="n">
+      <c r="E43" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" s="5" t="n">
         <f aca="false">E43-F43</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H43" s="6" t="n">
         <f aca="false">(F43/(F43+G43))</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="4" t="n">
+      <c r="E44" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" s="5" t="n">
         <f aca="false">E44-F44</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H44" s="6" t="n">
         <f aca="false">(F44/(F44+G44))</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4" t="n">
+      <c r="E45" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" s="5" t="n">
         <f aca="false">E45-F45</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H45" s="6" t="n">
         <f aca="false">(F45/(F45+G45))</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4" t="n">
+      <c r="E46" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" s="5" t="n">
         <f aca="false">E46-F46</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H46" s="6" t="n">
         <f aca="false">(F46/(F46+G46))</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4" t="n">
+      <c r="E47" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G47" s="5" t="n">
         <f aca="false">E47-F47</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H47" s="6" t="n">
         <f aca="false">(F47/(F47+G47))</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4" t="n">
+      <c r="E48" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5" t="n">
         <f aca="false">E48-F48</f>
         <v>5</v>
       </c>
@@ -1878,26 +1867,26 @@
         <f aca="false">(F48/(F48+G48))</f>
         <v>0</v>
       </c>
-      <c r="I48" s="3"/>
+      <c r="I48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="4" t="n">
+      <c r="E49" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4" t="n">
+      <c r="F49" s="5"/>
+      <c r="G49" s="5" t="n">
         <f aca="false">E49-F49</f>
         <v>10</v>
       </c>
@@ -1905,26 +1894,26 @@
         <f aca="false">(F49/(F49+G49))</f>
         <v>0</v>
       </c>
-      <c r="I49" s="3"/>
+      <c r="I49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="4" t="n">
+      <c r="E50" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4" t="n">
+      <c r="F50" s="5"/>
+      <c r="G50" s="5" t="n">
         <f aca="false">E50-F50</f>
         <v>10</v>
       </c>
@@ -1932,26 +1921,26 @@
         <f aca="false">(F50/(F50+G50))</f>
         <v>0</v>
       </c>
-      <c r="I50" s="3"/>
+      <c r="I50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="4" t="n">
+      <c r="E51" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4" t="n">
+      <c r="F51" s="5"/>
+      <c r="G51" s="5" t="n">
         <f aca="false">E51-F51</f>
         <v>15</v>
       </c>
@@ -1959,26 +1948,26 @@
         <f aca="false">(F51/(F51+G51))</f>
         <v>0</v>
       </c>
-      <c r="I51" s="3"/>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="4" t="n">
+      <c r="E52" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4" t="n">
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="n">
         <f aca="false">E52-F52</f>
         <v>10</v>
       </c>
@@ -1986,26 +1975,26 @@
         <f aca="false">(F52/(F52+G52))</f>
         <v>0</v>
       </c>
-      <c r="I52" s="3"/>
+      <c r="I52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="4" t="n">
+      <c r="E53" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4" t="n">
+      <c r="F53" s="5"/>
+      <c r="G53" s="5" t="n">
         <f aca="false">E53-F53</f>
         <v>15</v>
       </c>
@@ -2013,26 +2002,26 @@
         <f aca="false">(F53/(F53+G53))</f>
         <v>0</v>
       </c>
-      <c r="I53" s="3"/>
+      <c r="I53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="4" t="n">
+      <c r="E54" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4" t="n">
+      <c r="F54" s="5"/>
+      <c r="G54" s="5" t="n">
         <f aca="false">E54-F54</f>
         <v>15</v>
       </c>
@@ -2040,26 +2029,26 @@
         <f aca="false">(F54/(F54+G54))</f>
         <v>0</v>
       </c>
-      <c r="I54" s="3"/>
+      <c r="I54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="4" t="n">
+      <c r="E55" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4" t="n">
+      <c r="F55" s="5"/>
+      <c r="G55" s="5" t="n">
         <f aca="false">E55-F55</f>
         <v>10</v>
       </c>
@@ -2067,26 +2056,26 @@
         <f aca="false">(F55/(F55+G55))</f>
         <v>0</v>
       </c>
-      <c r="I55" s="3"/>
+      <c r="I55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="4" t="n">
+      <c r="E56" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4" t="n">
+      <c r="F56" s="5"/>
+      <c r="G56" s="5" t="n">
         <f aca="false">E56-F56</f>
         <v>10</v>
       </c>
@@ -2094,26 +2083,26 @@
         <f aca="false">(F56/(F56+G56))</f>
         <v>0</v>
       </c>
-      <c r="I56" s="3"/>
+      <c r="I56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4" t="n">
+      <c r="E57" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5" t="n">
         <f aca="false">E57-F57</f>
         <v>5</v>
       </c>
@@ -2121,26 +2110,26 @@
         <f aca="false">(F57/(F57+G57))</f>
         <v>0</v>
       </c>
-      <c r="I57" s="3"/>
+      <c r="I57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="4" t="n">
+      <c r="E58" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4" t="n">
+      <c r="F58" s="5"/>
+      <c r="G58" s="5" t="n">
         <f aca="false">E58-F58</f>
         <v>10</v>
       </c>
@@ -2148,26 +2137,26 @@
         <f aca="false">(F58/(F58+G58))</f>
         <v>0</v>
       </c>
-      <c r="I58" s="3"/>
+      <c r="I58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="4" t="n">
+      <c r="E59" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4" t="n">
+      <c r="F59" s="5"/>
+      <c r="G59" s="5" t="n">
         <f aca="false">E59-F59</f>
         <v>10</v>
       </c>
@@ -2175,26 +2164,26 @@
         <f aca="false">(F59/(F59+G59))</f>
         <v>0</v>
       </c>
-      <c r="I59" s="3"/>
+      <c r="I59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="4" t="n">
+      <c r="E60" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4" t="n">
+      <c r="F60" s="5"/>
+      <c r="G60" s="5" t="n">
         <f aca="false">E60-F60</f>
         <v>15</v>
       </c>
@@ -2202,26 +2191,26 @@
         <f aca="false">(F60/(F60+G60))</f>
         <v>0</v>
       </c>
-      <c r="I60" s="3"/>
+      <c r="I60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="4" t="n">
+      <c r="E61" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4" t="n">
+      <c r="F61" s="5"/>
+      <c r="G61" s="5" t="n">
         <f aca="false">E61-F61</f>
         <v>15</v>
       </c>
@@ -2229,26 +2218,26 @@
         <f aca="false">(F61/(F61+G61))</f>
         <v>0</v>
       </c>
-      <c r="I61" s="3"/>
+      <c r="I61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E62" s="4" t="n">
+      <c r="E62" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4" t="n">
+      <c r="F62" s="5"/>
+      <c r="G62" s="5" t="n">
         <f aca="false">E62-F62</f>
         <v>15</v>
       </c>
@@ -2256,68 +2245,68 @@
         <f aca="false">(F62/(F62+G62))</f>
         <v>0</v>
       </c>
-      <c r="I62" s="3"/>
+      <c r="I62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4" t="n">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="n">
         <f aca="false">SUM(E4:E62)</f>
         <v>615</v>
       </c>
-      <c r="F63" s="4" t="n">
+      <c r="F63" s="5" t="n">
         <f aca="false">SUM(F4:F62)</f>
-        <v>355</v>
-      </c>
-      <c r="G63" s="4" t="n">
+        <v>395</v>
+      </c>
+      <c r="G63" s="5" t="n">
         <f aca="false">SUM(G4:G62)</f>
-        <v>235</v>
-      </c>
-      <c r="H63" s="9" t="n">
+        <v>185</v>
+      </c>
+      <c r="H63" s="8" t="n">
         <f aca="false">(F63/(F63+G63))</f>
-        <v>0.601694915254237</v>
-      </c>
-      <c r="I63" s="3"/>
+        <v>0.681034482758621</v>
+      </c>
+      <c r="I63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="11" t="n">
+      <c r="B65" s="2" t="n">
         <f aca="false">E63</f>
         <v>615</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="11" t="n">
+      <c r="B66" s="2" t="n">
         <f aca="false">F63</f>
-        <v>355</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="11" t="n">
+      <c r="B67" s="2" t="n">
         <f aca="false">G63</f>
-        <v>235</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="11"/>
+      <c r="B68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3279,7 +3268,7 @@
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="2" t="s">
         <v>88</v>
       </c>
     </row>
